--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gdf9</t>
+  </si>
+  <si>
+    <t>Tgfbr1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf9</t>
-  </si>
-  <si>
-    <t>Tgfbr1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H2">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I2">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J2">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N2">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O2">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P2">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q2">
-        <v>28.21186966128</v>
+        <v>16.04205204498167</v>
       </c>
       <c r="R2">
-        <v>112.84747864512</v>
+        <v>96.25231226989</v>
       </c>
       <c r="S2">
-        <v>0.02082915296457803</v>
+        <v>0.0243806649454085</v>
       </c>
       <c r="T2">
-        <v>0.01155350603829452</v>
+        <v>0.01886919466434043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H3">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I3">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J3">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.059622</v>
       </c>
       <c r="O3">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P3">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q3">
-        <v>25.465994702505</v>
+        <v>17.22273272678</v>
       </c>
       <c r="R3">
-        <v>152.79596821503</v>
+        <v>155.00459454102</v>
       </c>
       <c r="S3">
-        <v>0.01880184140300412</v>
+        <v>0.02617506007825851</v>
       </c>
       <c r="T3">
-        <v>0.01564349653704689</v>
+        <v>0.03038692577130551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H4">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I4">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J4">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N4">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O4">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P4">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q4">
-        <v>128.516775979505</v>
+        <v>42.22777893768555</v>
       </c>
       <c r="R4">
-        <v>771.10065587703</v>
+        <v>380.05001043917</v>
       </c>
       <c r="S4">
-        <v>0.09488543714156883</v>
+        <v>0.06417765799423111</v>
       </c>
       <c r="T4">
-        <v>0.0789465231369916</v>
+        <v>0.07450457511143492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H5">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I5">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J5">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N5">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O5">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P5">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q5">
-        <v>29.3972527732425</v>
+        <v>16.25474691575167</v>
       </c>
       <c r="R5">
-        <v>117.58901109297</v>
+        <v>97.52848149451</v>
       </c>
       <c r="S5">
-        <v>0.02170433516473477</v>
+        <v>0.02470391800339072</v>
       </c>
       <c r="T5">
-        <v>0.01203895174275088</v>
+        <v>0.01911937343881469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H6">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I6">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J6">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N6">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O6">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P6">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q6">
-        <v>21.788904192345</v>
+        <v>168.3880713759222</v>
       </c>
       <c r="R6">
-        <v>130.73342515407</v>
+        <v>1515.4926423833</v>
       </c>
       <c r="S6">
-        <v>0.01608700252063684</v>
+        <v>0.2559157106278159</v>
       </c>
       <c r="T6">
-        <v>0.01338469795744781</v>
+        <v>0.2970954671854847</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.9559325</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H7">
-        <v>3.911865</v>
+        <v>3.96841</v>
       </c>
       <c r="I7">
-        <v>0.3115910700801156</v>
+        <v>0.4716617674019475</v>
       </c>
       <c r="J7">
-        <v>0.2474535818750443</v>
+        <v>0.5285632410259088</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N7">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O7">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P7">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q7">
-        <v>188.651086160805</v>
+        <v>50.20982955206222</v>
       </c>
       <c r="R7">
-        <v>1131.90651696483</v>
+        <v>451.88846596856</v>
       </c>
       <c r="S7">
-        <v>0.139283300885593</v>
+        <v>0.07630875575284284</v>
       </c>
       <c r="T7">
-        <v>0.1158864064625126</v>
+        <v>0.08858770485452855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H8">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I8">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J8">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N8">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O8">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P8">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q8">
-        <v>19.07977664234667</v>
+        <v>2.285699642825667</v>
       </c>
       <c r="R8">
-        <v>114.47865985408</v>
+        <v>13.714197856954</v>
       </c>
       <c r="S8">
-        <v>0.01408682200027542</v>
+        <v>0.003473799798262414</v>
       </c>
       <c r="T8">
-        <v>0.01172050898930008</v>
+        <v>0.002688515869650402</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H9">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I9">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J9">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>39.059622</v>
       </c>
       <c r="O9">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P9">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q9">
-        <v>17.22273272678001</v>
+        <v>2.453925092108</v>
       </c>
       <c r="R9">
-        <v>155.00459454102</v>
+        <v>22.085325828972</v>
       </c>
       <c r="S9">
-        <v>0.0127157447819383</v>
+        <v>0.003729468356296198</v>
       </c>
       <c r="T9">
-        <v>0.01586961924621178</v>
+        <v>0.004329582349395902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H10">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I10">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J10">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N10">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O10">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P10">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q10">
-        <v>86.91630189433558</v>
+        <v>6.016687825506888</v>
       </c>
       <c r="R10">
-        <v>782.2467170490202</v>
+        <v>54.150190429562</v>
       </c>
       <c r="S10">
-        <v>0.06417132111443404</v>
+        <v>0.009144144997378326</v>
       </c>
       <c r="T10">
-        <v>0.08008767477458167</v>
+        <v>0.01061554221639352</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H11">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I11">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J11">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N11">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O11">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P11">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q11">
-        <v>19.88145498849667</v>
+        <v>2.316004780147667</v>
       </c>
       <c r="R11">
-        <v>119.28872993098</v>
+        <v>13.896028680886</v>
       </c>
       <c r="S11">
-        <v>0.01467871048908643</v>
+        <v>0.003519857459532962</v>
       </c>
       <c r="T11">
-        <v>0.01221297168625452</v>
+        <v>0.002724161779154683</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H12">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I12">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J12">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N12">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O12">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P12">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q12">
-        <v>14.73590478982</v>
+        <v>23.99222702437555</v>
       </c>
       <c r="R12">
-        <v>132.62314310838</v>
+        <v>215.93004321938</v>
       </c>
       <c r="S12">
-        <v>0.01087969066296519</v>
+        <v>0.03646331820488393</v>
       </c>
       <c r="T12">
-        <v>0.01357817031551842</v>
+        <v>0.04233068196804763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.322803333333334</v>
+        <v>0.1884753333333333</v>
       </c>
       <c r="H13">
-        <v>3.96841</v>
+        <v>0.565426</v>
       </c>
       <c r="I13">
-        <v>0.2107300257748554</v>
+        <v>0.06720319384716135</v>
       </c>
       <c r="J13">
-        <v>0.2510304596014292</v>
+        <v>0.07531061536492337</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N13">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O13">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P13">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q13">
-        <v>127.58532598158</v>
+        <v>7.153984362579555</v>
       </c>
       <c r="R13">
-        <v>1148.26793383422</v>
+        <v>64.38585926321599</v>
       </c>
       <c r="S13">
-        <v>0.09419773672615599</v>
+        <v>0.01087260503080753</v>
       </c>
       <c r="T13">
-        <v>0.1175615145895627</v>
+        <v>0.01262213118228123</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H14">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I14">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J14">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N14">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O14">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P14">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q14">
-        <v>9.684274806528</v>
+        <v>10.98441819054825</v>
       </c>
       <c r="R14">
-        <v>58.105648839168</v>
+        <v>43.937672762193</v>
       </c>
       <c r="S14">
-        <v>0.007150013229113612</v>
+        <v>0.01669408743800851</v>
       </c>
       <c r="T14">
-        <v>0.005948949615733213</v>
+        <v>0.008613491779015266</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H15">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I15">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J15">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>39.059622</v>
       </c>
       <c r="O15">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P15">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q15">
-        <v>8.741699642088001</v>
+        <v>11.792861544429</v>
       </c>
       <c r="R15">
-        <v>78.675296778792</v>
+        <v>70.757169266574</v>
       </c>
       <c r="S15">
-        <v>0.006454098973289623</v>
+        <v>0.01792275734152467</v>
       </c>
       <c r="T15">
-        <v>0.008054903195993515</v>
+        <v>0.01387115560450106</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H16">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I16">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J16">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N16">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O16">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P16">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q16">
-        <v>44.115891317288</v>
+        <v>28.91447938262149</v>
       </c>
       <c r="R16">
-        <v>397.043021855592</v>
+        <v>173.486876295729</v>
       </c>
       <c r="S16">
-        <v>0.03257127795672653</v>
+        <v>0.04394414330049147</v>
       </c>
       <c r="T16">
-        <v>0.04064990202304052</v>
+        <v>0.03401017142687909</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H17">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I17">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J17">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N17">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O17">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P17">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q17">
-        <v>10.091180692068</v>
+        <v>11.13005600552175</v>
       </c>
       <c r="R17">
-        <v>60.547084152408</v>
+        <v>44.520224022087</v>
       </c>
       <c r="S17">
-        <v>0.007450436598208221</v>
+        <v>0.01691542737384054</v>
       </c>
       <c r="T17">
-        <v>0.00619890768278342</v>
+        <v>0.008727694470521258</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H18">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I18">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J18">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N18">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O18">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P18">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q18">
-        <v>7.479466567272001</v>
+        <v>115.299775185035</v>
       </c>
       <c r="R18">
-        <v>67.315199105448</v>
+        <v>691.7986511102099</v>
       </c>
       <c r="S18">
-        <v>0.005522177547735325</v>
+        <v>0.1752322694867854</v>
       </c>
       <c r="T18">
-        <v>0.006891838157763073</v>
+        <v>0.1356194267803598</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.671412</v>
+        <v>0.9057584999999999</v>
       </c>
       <c r="H19">
-        <v>2.014236</v>
+        <v>1.811517</v>
       </c>
       <c r="I19">
-        <v>0.1069597154015441</v>
+        <v>0.3229593123815359</v>
       </c>
       <c r="J19">
-        <v>0.1274149064299667</v>
+        <v>0.2412808396041566</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N19">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O19">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P19">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q19">
-        <v>64.758166788168</v>
+        <v>34.380000983012</v>
       </c>
       <c r="R19">
-        <v>582.823501093512</v>
+        <v>206.280005898072</v>
       </c>
       <c r="S19">
-        <v>0.04781171109647075</v>
+        <v>0.05225062744088537</v>
       </c>
       <c r="T19">
-        <v>0.05967040575465295</v>
+        <v>0.04043889954288014</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H20">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I20">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J20">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N20">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O20">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P20">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q20">
-        <v>15.394649479872</v>
+        <v>2.1193088454475</v>
       </c>
       <c r="R20">
-        <v>61.578597919488</v>
+        <v>12.715853072685</v>
       </c>
       <c r="S20">
-        <v>0.0113660495636136</v>
+        <v>0.003220919538960084</v>
       </c>
       <c r="T20">
-        <v>0.006304515718333962</v>
+        <v>0.002492801484902123</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H21">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I21">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J21">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>39.059622</v>
       </c>
       <c r="O21">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P21">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q21">
-        <v>13.896280778562</v>
+        <v>2.27528808087</v>
       </c>
       <c r="R21">
-        <v>83.37768467137201</v>
+        <v>20.47759272783</v>
       </c>
       <c r="S21">
-        <v>0.01025978644629329</v>
+        <v>0.00345797633609637</v>
       </c>
       <c r="T21">
-        <v>0.008536341218035452</v>
+        <v>0.00401440416678052</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H22">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I22">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J22">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N22">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O22">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P22">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q22">
-        <v>70.12901811336199</v>
+        <v>5.578694369978333</v>
       </c>
       <c r="R22">
-        <v>420.774108680172</v>
+        <v>50.20824932980499</v>
       </c>
       <c r="S22">
-        <v>0.05177707337644793</v>
+        <v>0.008478483792840351</v>
       </c>
       <c r="T22">
-        <v>0.04307952879197617</v>
+        <v>0.009842768532182015</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H23">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I23">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J23">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N23">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O23">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P23">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q23">
-        <v>16.041489186957</v>
+        <v>2.1474078766525</v>
       </c>
       <c r="R23">
-        <v>64.16595674782801</v>
+        <v>12.884447259915</v>
       </c>
       <c r="S23">
-        <v>0.01184361887625394</v>
+        <v>0.003263624366445916</v>
       </c>
       <c r="T23">
-        <v>0.0065694136691377</v>
+        <v>0.002525852499086582</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H24">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I24">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J24">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N24">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O24">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P24">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q24">
-        <v>11.889766492578</v>
+        <v>22.24567830438333</v>
       </c>
       <c r="R24">
-        <v>71.338598955468</v>
+        <v>200.21110473945</v>
       </c>
       <c r="S24">
-        <v>0.008778353507244483</v>
+        <v>0.03380891844146445</v>
       </c>
       <c r="T24">
-        <v>0.007303760293904567</v>
+        <v>0.03924915900927529</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.067313</v>
+        <v>0.174755</v>
       </c>
       <c r="H25">
-        <v>2.134626</v>
+        <v>0.524265</v>
       </c>
       <c r="I25">
-        <v>0.1700289758365477</v>
+        <v>0.06231104056460447</v>
       </c>
       <c r="J25">
-        <v>0.1350304393591288</v>
+        <v>0.0698282706566227</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N25">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O25">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P25">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q25">
-        <v>102.943100911482</v>
+        <v>6.633199767693333</v>
       </c>
       <c r="R25">
-        <v>617.658605468892</v>
+        <v>59.69879790923999</v>
       </c>
       <c r="S25">
-        <v>0.07600409406669449</v>
+        <v>0.01008111808879732</v>
       </c>
       <c r="T25">
-        <v>0.06323687966774093</v>
+        <v>0.01170328496439617</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H26">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I26">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J26">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.423744</v>
+        <v>12.1273145</v>
       </c>
       <c r="N26">
-        <v>28.847488</v>
+        <v>24.254629</v>
       </c>
       <c r="O26">
-        <v>0.06684772114689448</v>
+        <v>0.05169099263589756</v>
       </c>
       <c r="P26">
-        <v>0.04668958901604687</v>
+        <v>0.03569902936821047</v>
       </c>
       <c r="Q26">
-        <v>14.401286230592</v>
+        <v>2.5802923242215</v>
       </c>
       <c r="R26">
-        <v>86.407717383552</v>
+        <v>15.481753945329</v>
       </c>
       <c r="S26">
-        <v>0.01063263787140516</v>
+        <v>0.003921520915258049</v>
       </c>
       <c r="T26">
-        <v>0.008846560831771724</v>
+        <v>0.003035025570302252</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H27">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I27">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J27">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>39.059622</v>
       </c>
       <c r="O27">
-        <v>0.06034140002205402</v>
+        <v>0.05549540345921714</v>
       </c>
       <c r="P27">
-        <v>0.06321790300431507</v>
+        <v>0.0574896689984085</v>
       </c>
       <c r="Q27">
-        <v>12.999602056182</v>
+        <v>2.770199531358001</v>
       </c>
       <c r="R27">
-        <v>116.996418505638</v>
+        <v>24.931795782222</v>
       </c>
       <c r="S27">
-        <v>0.009597758069841186</v>
+        <v>0.004210141347041381</v>
       </c>
       <c r="T27">
-        <v>0.01197828116226304</v>
+        <v>0.004887601106425515</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H28">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I28">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J28">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>65.70614066666667</v>
+        <v>31.92294566666666</v>
       </c>
       <c r="N28">
-        <v>197.118422</v>
+        <v>95.76883699999999</v>
       </c>
       <c r="O28">
-        <v>0.3045191157666107</v>
+        <v>0.1360671193421944</v>
       </c>
       <c r="P28">
-        <v>0.3190356855568045</v>
+        <v>0.1409567849758642</v>
       </c>
       <c r="Q28">
-        <v>65.60383620564866</v>
+        <v>6.792149380659667</v>
       </c>
       <c r="R28">
-        <v>590.434525850838</v>
+        <v>61.12934442593699</v>
       </c>
       <c r="S28">
-        <v>0.04843607870718412</v>
+        <v>0.01032268925725309</v>
       </c>
       <c r="T28">
-        <v>0.06044963468867201</v>
+        <v>0.01198372768897468</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H29">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I29">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J29">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.029789</v>
+        <v>12.2881055</v>
       </c>
       <c r="N29">
-        <v>30.059578</v>
+        <v>24.576211</v>
       </c>
       <c r="O29">
-        <v>0.06965647365681629</v>
+        <v>0.05237634192711274</v>
       </c>
       <c r="P29">
-        <v>0.04865135372673711</v>
+        <v>0.03617234789484255</v>
       </c>
       <c r="Q29">
-        <v>15.006387618527</v>
+        <v>2.6145033429185</v>
       </c>
       <c r="R29">
-        <v>90.038325711162</v>
+        <v>15.687020057511</v>
       </c>
       <c r="S29">
-        <v>0.01107939129539658</v>
+        <v>0.003973514723902597</v>
       </c>
       <c r="T29">
-        <v>0.009218268341229121</v>
+        <v>0.003075265707265342</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H30">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I30">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J30">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.139906</v>
+        <v>127.2963766666667</v>
       </c>
       <c r="N30">
-        <v>33.419718</v>
+        <v>381.88913</v>
       </c>
       <c r="O30">
-        <v>0.05162857368313087</v>
+        <v>0.5425831142462009</v>
       </c>
       <c r="P30">
-        <v>0.05408973212683835</v>
+        <v>0.5620812120964762</v>
       </c>
       <c r="Q30">
-        <v>11.122561166358</v>
+        <v>27.08446817423667</v>
       </c>
       <c r="R30">
-        <v>100.103050497222</v>
+        <v>243.76021356813</v>
       </c>
       <c r="S30">
-        <v>0.008211916851789217</v>
+        <v>0.04116289748525116</v>
       </c>
       <c r="T30">
-        <v>0.01024871102356144</v>
+        <v>0.04778647715330878</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.998443</v>
+        <v>0.212767</v>
       </c>
       <c r="H31">
-        <v>2.995329</v>
+        <v>0.638301</v>
       </c>
       <c r="I31">
-        <v>0.1590575967135885</v>
+        <v>0.07586468580475066</v>
       </c>
       <c r="J31">
-        <v>0.1894760913130168</v>
+        <v>0.08501703334838856</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>96.450714</v>
+        <v>37.95713866666667</v>
       </c>
       <c r="N31">
-        <v>289.352142</v>
+        <v>113.871416</v>
       </c>
       <c r="O31">
-        <v>0.4470067157244936</v>
+        <v>0.1617870283893775</v>
       </c>
       <c r="P31">
-        <v>0.4683157365692581</v>
+        <v>0.1676009566661981</v>
       </c>
       <c r="Q31">
-        <v>96.30054023830201</v>
+        <v>8.076026522690666</v>
       </c>
       <c r="R31">
-        <v>866.704862144718</v>
+        <v>72.684238704216</v>
       </c>
       <c r="S31">
-        <v>0.0710998139179722</v>
+        <v>0.0122739220760444</v>
       </c>
       <c r="T31">
-        <v>0.08873463526551947</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.261338</v>
-      </c>
-      <c r="H32">
-        <v>0.784014</v>
-      </c>
-      <c r="I32">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J32">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>14.423744</v>
-      </c>
-      <c r="N32">
-        <v>28.847488</v>
-      </c>
-      <c r="O32">
-        <v>0.06684772114689448</v>
-      </c>
-      <c r="P32">
-        <v>0.04668958901604687</v>
-      </c>
-      <c r="Q32">
-        <v>3.769472409472001</v>
-      </c>
-      <c r="R32">
-        <v>22.616834456832</v>
-      </c>
-      <c r="S32">
-        <v>0.002783045517908666</v>
-      </c>
-      <c r="T32">
-        <v>0.002315547822613367</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.261338</v>
-      </c>
-      <c r="H33">
-        <v>0.784014</v>
-      </c>
-      <c r="I33">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J33">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>13.019874</v>
-      </c>
-      <c r="N33">
-        <v>39.059622</v>
-      </c>
-      <c r="O33">
-        <v>0.06034140002205402</v>
-      </c>
-      <c r="P33">
-        <v>0.06321790300431507</v>
-      </c>
-      <c r="Q33">
-        <v>3.402587831412001</v>
-      </c>
-      <c r="R33">
-        <v>30.623290482708</v>
-      </c>
-      <c r="S33">
-        <v>0.002512170347687506</v>
-      </c>
-      <c r="T33">
-        <v>0.003135261644764397</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.261338</v>
-      </c>
-      <c r="H34">
-        <v>0.784014</v>
-      </c>
-      <c r="I34">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J34">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>65.70614066666667</v>
-      </c>
-      <c r="N34">
-        <v>197.118422</v>
-      </c>
-      <c r="O34">
-        <v>0.3045191157666107</v>
-      </c>
-      <c r="P34">
-        <v>0.3190356855568045</v>
-      </c>
-      <c r="Q34">
-        <v>17.17151138954533</v>
-      </c>
-      <c r="R34">
-        <v>154.543602505908</v>
-      </c>
-      <c r="S34">
-        <v>0.01267792747024926</v>
-      </c>
-      <c r="T34">
-        <v>0.01582242214154255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.261338</v>
-      </c>
-      <c r="H35">
-        <v>0.784014</v>
-      </c>
-      <c r="I35">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J35">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>15.029789</v>
-      </c>
-      <c r="N35">
-        <v>30.059578</v>
-      </c>
-      <c r="O35">
-        <v>0.06965647365681629</v>
-      </c>
-      <c r="P35">
-        <v>0.04865135372673711</v>
-      </c>
-      <c r="Q35">
-        <v>3.927854997682001</v>
-      </c>
-      <c r="R35">
-        <v>23.567129986092</v>
-      </c>
-      <c r="S35">
-        <v>0.002899981233136346</v>
-      </c>
-      <c r="T35">
-        <v>0.002412840604581469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.261338</v>
-      </c>
-      <c r="H36">
-        <v>0.784014</v>
-      </c>
-      <c r="I36">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J36">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>11.139906</v>
-      </c>
-      <c r="N36">
-        <v>33.419718</v>
-      </c>
-      <c r="O36">
-        <v>0.05162857368313087</v>
-      </c>
-      <c r="P36">
-        <v>0.05408973212683835</v>
-      </c>
-      <c r="Q36">
-        <v>2.911280754228001</v>
-      </c>
-      <c r="R36">
-        <v>26.201526788052</v>
-      </c>
-      <c r="S36">
-        <v>0.002149432592759817</v>
-      </c>
-      <c r="T36">
-        <v>0.002682554378643048</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.261338</v>
-      </c>
-      <c r="H37">
-        <v>0.784014</v>
-      </c>
-      <c r="I37">
-        <v>0.04163261619334883</v>
-      </c>
-      <c r="J37">
-        <v>0.04959452142141433</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>96.450714</v>
-      </c>
-      <c r="N37">
-        <v>289.352142</v>
-      </c>
-      <c r="O37">
-        <v>0.4470067157244936</v>
-      </c>
-      <c r="P37">
-        <v>0.4683157365692581</v>
-      </c>
-      <c r="Q37">
-        <v>25.206236695332</v>
-      </c>
-      <c r="R37">
-        <v>226.856130257988</v>
-      </c>
-      <c r="S37">
-        <v>0.01861005903160723</v>
-      </c>
-      <c r="T37">
-        <v>0.0232258948292695</v>
+        <v>0.01424893612211199</v>
       </c>
     </row>
   </sheetData>
